--- a/GameQuestions.xlsx
+++ b/GameQuestions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity.sharepoint.com/teams/segroup15/Shared Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B891C9A-A94A-4ACE-BEBF-4C8F900B0F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2EDD151-7B7D-4FE5-B22C-1B5C805C1E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="13530" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="696">
   <si>
     <t>Question</t>
   </si>
@@ -1130,6 +1130,21 @@
     <t>They both use the same tatics and strategies when working with data</t>
   </si>
   <si>
+    <t xml:space="preserve">Fill in the blank. An important characteristic of a data scientist is to be curious and begin by asking questions that start with _______. </t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
     <t>Andreas wants to email highly sensitive documents to Nivi, a journalist. To ensure the confidentiality of his email, Andreas and Nivi agree to use asymmetric encryption.
 What is the first step that Andreas should take?</t>
   </si>
@@ -1747,6 +1762,418 @@
   </si>
   <si>
     <t>Digital photos</t>
+  </si>
+  <si>
+    <t>What type of data is on a driver’s license that records a person's eye color and hair color?</t>
+  </si>
+  <si>
+    <t>Qualitative data</t>
+  </si>
+  <si>
+    <t>Quantitative data</t>
+  </si>
+  <si>
+    <t>Fill in the blank. Text in a book, audio files, and social media posts are examples of _______________ data.</t>
+  </si>
+  <si>
+    <t>unstructured</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>structured</t>
+  </si>
+  <si>
+    <t>While reviewing a spreadsheet with customer information, you see that one of the columns contains data for the marital status of the customers. What type of data is this?</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>Fill in the blank. The __________ of big data refers to the ability to obtain monetary, medical, social, or personal benefits from the data.</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Veracity</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>What is the speed at which new data is generated and moves around?</t>
+  </si>
+  <si>
+    <t>Fill in the blank. With big data, the __________ is the quality and trustworthiness of the data.</t>
+  </si>
+  <si>
+    <t>Which type of analytics drills down the trends and patterns to identify the causes of problems?</t>
+  </si>
+  <si>
+    <t>Diagnostic analytics</t>
+  </si>
+  <si>
+    <t>Descriptive analytics</t>
+  </si>
+  <si>
+    <t>Prescriptive analytics</t>
+  </si>
+  <si>
+    <t>Predictive analytics</t>
+  </si>
+  <si>
+    <t>Which type of analytics makes forecasts about the future?</t>
+  </si>
+  <si>
+    <t>Which type of analytics recommends actions to take to eliminate a future problem or take advantage of a promising trend?</t>
+  </si>
+  <si>
+    <t>A company uses data analytics to get a “snapshot” of its business and to identify issues. The company’s data sources are past and present revenue reports and stock prices. Which type of analytics uses this type of data?</t>
+  </si>
+  <si>
+    <t>Which of the following statements about data visualizations is correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The goal is to have a visual that is effective, attractive, and impactive. </t>
+  </si>
+  <si>
+    <t>Data visualizations turn narratives into numbers.</t>
+  </si>
+  <si>
+    <t>Data analysts typically use one of four types of visualizations.</t>
+  </si>
+  <si>
+    <t>The audience should be confused when they first see a visualization.</t>
+  </si>
+  <si>
+    <t>Which type of visualization is best-suited for ranking a large number of categories, showing correlation, and using for before-after analysis?</t>
+  </si>
+  <si>
+    <t>Bar chart</t>
+  </si>
+  <si>
+    <t>Line chart</t>
+  </si>
+  <si>
+    <t>Pie chart</t>
+  </si>
+  <si>
+    <t>Scatter plot chart</t>
+  </si>
+  <si>
+    <t>The data analysts at a large grocery chain are reviewing data about customer buying to observe relationships and determine insights about the business. What step of the data analysis process are they performing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Analyse</t>
+  </si>
+  <si>
+    <t>Collect</t>
+  </si>
+  <si>
+    <t>Visualise</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>A social media company’s website contains videos posted by users and comments made by viewers. What kind of data is this?</t>
+  </si>
+  <si>
+    <t>Nominal data</t>
+  </si>
+  <si>
+    <t>A large retail company has collected a huge amount of data, such as customer purchases, sales, financial reports, and payroll, in its computer systems. This data is located in databases. What is the purpose of a database?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+To store structured data to make it easier to analyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+To organise unstructured data into a standard format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+To collect all types of data in tables and make it meaningful</t>
+  </si>
+  <si>
+    <t>To duplicate data to ensure a backup can be saved</t>
+  </si>
+  <si>
+    <t>During analysis, data analysts create visualizations like charts, graphs, and maps to explore and interpret data to identify patterns or trends. Which of the following is another reason data analysts create data visualizations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Communicate results and help people understand the insights to make decisions</t>
+  </si>
+  <si>
+    <t>Publish data in a presentation template</t>
+  </si>
+  <si>
+    <t>Increase the complexity and significance of the presentation</t>
+  </si>
+  <si>
+    <t>Organize data in a usable format, such as a spreadsheet, for people to easily access</t>
+  </si>
+  <si>
+    <t>You're a data analyst for a company and have gathered a large data set. Your next step is to “wrangle” the data to make sure it doesn’t have missing or inaccurate values. In what step of the data analysis process is data “wrangled?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Clean</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>BigTech deployed a new mobile app to its customers and as a result has generated much more data about customers than before. What characteristic of big data does this scenario describe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Volume</t>
+  </si>
+  <si>
+    <t>Variety</t>
+  </si>
+  <si>
+    <t>A credit card company database has the names of card holders, dates card holders make purchases, and the type of payment method used. What kind of data is this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Structured data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Qualitative data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Unstructured data</t>
+  </si>
+  <si>
+    <t>Ordinal data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are reviewing a spreadsheet containing information about the people who will be attending a conference. You notice that one of the columns contains the city in which each attendee lives. What type of data is this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Discrete</t>
+  </si>
+  <si>
+    <t>The data analyst for an insurance company has performed diagnostic analytics on data and discovered some unexpected patterns in insurance claims. Next, the data analyst wants to drill down and find out the reason for these unexpected patterns. What kind of analytics will the data analyst use to answer the question, “Why is this happening?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Prescriptive analytics</t>
+  </si>
+  <si>
+    <t>A national weather service uses data analytics to analyze weather in one part of the country. The weather service uses the results to determine future weather conditions in other parts of the country. What type of analytics is the national weather service using?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Predictive analytics</t>
+  </si>
+  <si>
+    <t>Presciptive analytics</t>
+  </si>
+  <si>
+    <t>You are examining data in a case study. The case study data is the daily height and weight of newborn babies that has been collected during their stay in a hospital before going home. What type of data is this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ordinal</t>
+  </si>
+  <si>
+    <t>You are considering buying a new desk for your home office. It is black, made of steel, and the table height can be adjusted. What kind of information is this?</t>
+  </si>
+  <si>
+    <t>Discrete data</t>
+  </si>
+  <si>
+    <t>MyBank is noticing incorrect formatting and typos in the data it receives from one of its sources. What characteristic of big data does this scenario describe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Veracity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Variety</t>
+  </si>
+  <si>
+    <t>Which of the following statements about the importance of data in our world is NOT correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Nonprofit organizations, governments, and academic institutions cannot use data that can help solve challenges faced by the people they serve.</t>
+  </si>
+  <si>
+    <t>Data is one of the most valuable assets organizations can have, whether it's in business, finance, healthcare, retail, technology, or marketing, and more.</t>
+  </si>
+  <si>
+    <t>Data insights can help drive the business forward for success by potentially cutting costs, increasing profits, and finding new innovations.</t>
+  </si>
+  <si>
+    <t>You need to display the number of customer service calls your team answered over the past month to determine trends and the busiest times. Which chart is best for this type of visualization?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Line chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Scatter plot chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map
+</t>
+  </si>
+  <si>
+    <t>Which of the following statements is correct about CRISP-DM, KDD and SEMMA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISP-DM, KDD, and SEMMA use data mining methods that are best suited for structured data.
+</t>
+  </si>
+  <si>
+    <t>CRISP-DM, KDD, and SEMMA are dependent on a company’s technologies and tools.</t>
+  </si>
+  <si>
+    <t>CRISP-DM, KDD, and SEMMA use data deployment methods that are best suited for unstructured data.</t>
+  </si>
+  <si>
+    <t>CRISP-DM, KDD, and SEMMA are industry-recognized methodologies that offer a set of techniques to follow in sequence once.</t>
+  </si>
+  <si>
+    <t>Which of the following is a common characteristic that you can conclude across the CRISP-DM, KDD and SEMMA data science methodologies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They can all be iterative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The can all focus on unstructured data </t>
+  </si>
+  <si>
+    <t>They can all focus on project requirements from a business perspective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They can all integrate with machine learning </t>
+  </si>
+  <si>
+    <t>Fill in the blank. The first phase of the __________ methodology is to understand the project objective from a business perspective and define the data problem to solve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISP-DM
+</t>
+  </si>
+  <si>
+    <t>SEMMA</t>
+  </si>
+  <si>
+    <t>KDD</t>
+  </si>
+  <si>
+    <t>In which step of the data science methodology would you create a chart to view, conclude, and share insights about the data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data visualisation and presentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data representation and transformation </t>
+  </si>
+  <si>
+    <t>Business understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data exploration and preparation </t>
+  </si>
+  <si>
+    <t>A data science team participates in a design thinking workshop. The purpose of the workshop is to define the business problem and objectives of their project.
+In which step of the data science project would the team have a design thinking workshop?</t>
+  </si>
+  <si>
+    <t>Data visualisation and presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasmeen is a data scientist who is in the middle of a project exploring conservation data from zoos and aquariums for penguins. Jasmine is predicting the future population trends of a specific species of penguin. She is structuring and organizing the data from many sources so it’s in the best format possible to support an efficient machine learning model. In which step of the data science methodology is Jasmeen working? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train data models </t>
+  </si>
+  <si>
+    <t>Miguel is a data scientist for a large bank. Miguel’s team is devoted to spotting fraudulent transactions and reacting promptly to save the bank and its customers money. Miguel’s team uses unsupervised learning techniques to find any similarities, differences, patterns, and structure in the financial data to make predictions. In which step in teh data science methodology is Miguel's team working?</t>
+  </si>
+  <si>
+    <t>Train data models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy data models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business understanding </t>
+  </si>
+  <si>
+    <t>Which job role collects, cleans, and analyzes large amounts of data to identify trends and find patterns to communicate in visualizations and presentations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data analyst </t>
+  </si>
+  <si>
+    <t>Data engineer</t>
+  </si>
+  <si>
+    <t>Data scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data visualiser </t>
+  </si>
+  <si>
+    <t>Which job role uses statistics, machine learning, and data models to find patterns and predict outcomes?</t>
+  </si>
+  <si>
+    <t>Data analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data visualiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following statements is correct about a data science team?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data science team has a common goal to extract valuable insights from data to answer business problems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data scientist is responsible for understading the business problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data science team can change roles and resposibilities depending on the data science project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data scientist is responsible for managing the team's data "pipeline" </t>
   </si>
   <si>
     <t>Categories</t>
@@ -1756,7 +2183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1798,6 +2225,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1831,7 +2264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1845,6 +2278,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2220,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4114,266 +4550,281 @@
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="87">
+      <c r="A85" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="B85" t="s">
         <v>351</v>
       </c>
+      <c r="C85" t="s">
+        <v>362</v>
+      </c>
+      <c r="D85" t="s">
+        <v>363</v>
+      </c>
+      <c r="E85" t="s">
+        <v>364</v>
+      </c>
+      <c r="F85" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="144.75">
       <c r="A86" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B86" t="s">
         <v>189</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="135">
       <c r="A87" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B87" t="s">
         <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D87" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E87" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F87" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="216.75">
       <c r="A88" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B88" t="s">
         <v>189</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="201.75">
       <c r="A89" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s">
         <v>189</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="245.25">
       <c r="A90" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B90" t="s">
         <v>189</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="260.25">
       <c r="A91" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B91" t="s">
         <v>189</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="174">
       <c r="A92" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B92" t="s">
         <v>189</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="130.5">
       <c r="A93" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B93" t="s">
         <v>189</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="144.75">
       <c r="A94" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B94" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="130.5">
       <c r="A95" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B95" t="s">
         <v>407</v>
       </c>
-      <c r="B95" t="s">
-        <v>402</v>
-      </c>
       <c r="C95" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="57.75">
       <c r="A96" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B96" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C96" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D96" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E96" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F96" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="101.25">
       <c r="A97" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B97" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="87">
       <c r="A98" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B98" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C98" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F98" t="s">
         <v>351</v>
@@ -4381,742 +4832,1370 @@
     </row>
     <row r="99" spans="1:6" ht="87">
       <c r="A99" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B99" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="87">
       <c r="A100" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B100" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C100" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D100" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="F100" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="130.5">
       <c r="A101" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B101" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D101" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E101" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F101" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="101.25">
       <c r="A102" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B102" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="231">
       <c r="A103" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B103" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="57.75">
       <c r="A104" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B104" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="216.75">
       <c r="A105" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B105" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C105" t="s">
         <v>290</v>
       </c>
       <c r="D105" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E105" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F105" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="174">
       <c r="A106" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B106" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C106" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D106" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="E106" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F106" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="174">
       <c r="A107" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B107" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C107" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D107" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E107" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F107" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="87">
       <c r="A108" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B108" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C108" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D108" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E108" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F108" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="101.25">
       <c r="A109" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C109" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D109" t="s">
         <v>196</v>
       </c>
       <c r="E109" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F109" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="174">
       <c r="A110" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="F110" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>478</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="188.25">
+      <c r="A111" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="B111" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C111" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D111" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E111" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F111" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>483</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="87">
+      <c r="A112" s="7" t="s">
+        <v>488</v>
       </c>
       <c r="B112" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C112" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D112" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E112" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="F112" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>485</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="101.25">
+      <c r="A113" s="7" t="s">
+        <v>490</v>
       </c>
       <c r="B113" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C113" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D113" t="s">
+        <v>492</v>
+      </c>
+      <c r="E113" t="s">
+        <v>493</v>
+      </c>
+      <c r="F113" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="115.5">
+      <c r="A114" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B114" t="s">
+        <v>407</v>
+      </c>
+      <c r="C114" t="s">
+        <v>496</v>
+      </c>
+      <c r="D114" t="s">
+        <v>497</v>
+      </c>
+      <c r="E114" t="s">
+        <v>498</v>
+      </c>
+      <c r="F114" t="s">
         <v>487</v>
       </c>
-      <c r="E113" t="s">
-        <v>488</v>
-      </c>
-      <c r="F113" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>490</v>
-      </c>
-      <c r="B114" t="s">
-        <v>402</v>
-      </c>
-      <c r="C114" t="s">
-        <v>491</v>
-      </c>
-      <c r="D114" t="s">
-        <v>492</v>
-      </c>
-      <c r="E114" t="s">
-        <v>493</v>
-      </c>
-      <c r="F114" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>494</v>
+    </row>
+    <row r="115" spans="1:6" ht="101.25">
+      <c r="A115" s="7" t="s">
+        <v>499</v>
       </c>
       <c r="B115" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C115" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D115" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E115" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F115" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>499</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="144.75">
+      <c r="A116" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="B116" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C116" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D116" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="E116" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F116" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>504</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="130.5">
+      <c r="A117" s="7" t="s">
+        <v>509</v>
       </c>
       <c r="B117" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C117" t="s">
         <v>196</v>
       </c>
       <c r="D117" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E117" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F117" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>508</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="72.75">
+      <c r="A118" s="7" t="s">
+        <v>513</v>
       </c>
       <c r="B118" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C118" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D118" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="E118" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F118" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>513</v>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="130.5">
+      <c r="A119" s="7" t="s">
+        <v>518</v>
       </c>
       <c r="B119" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C119" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D119" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E119" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F119" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>517</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="101.25">
+      <c r="A120" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="B120" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C120" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D120" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E120" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F120" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="135">
-      <c r="A121" t="s">
-        <v>522</v>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="159">
+      <c r="A121" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="B121" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="E121" t="s">
-        <v>525</v>
-      </c>
-      <c r="F121" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>527</v>
+        <v>529</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="130.5">
+      <c r="A122" s="7" t="s">
+        <v>532</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C122" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D122" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="E122" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="F122" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>532</v>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="130.5">
+      <c r="A123" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="B123" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C123" t="s">
         <v>290</v>
       </c>
       <c r="D123" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E123" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="F123" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>533</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="87">
+      <c r="A124" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="B124" t="s">
-        <v>402</v>
-      </c>
-      <c r="C124" t="s">
-        <v>534</v>
-      </c>
-      <c r="D124" t="s">
-        <v>535</v>
-      </c>
-      <c r="E124" t="s">
-        <v>536</v>
-      </c>
-      <c r="F124" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>538</v>
+        <v>407</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="174">
+      <c r="A125" s="7" t="s">
+        <v>543</v>
       </c>
       <c r="B125" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C125" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D125" t="s">
         <v>196</v>
       </c>
       <c r="E125" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F125" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="54.75">
-      <c r="A126" t="s">
-        <v>539</v>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="72.75">
+      <c r="A126" s="7" t="s">
+        <v>544</v>
       </c>
       <c r="B126" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="D126" t="s">
-        <v>541</v>
-      </c>
-      <c r="E126" t="s">
-        <v>542</v>
-      </c>
-      <c r="F126" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="27.75">
-      <c r="A127" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="115.5">
+      <c r="A127" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="B127" t="s">
-        <v>402</v>
-      </c>
-      <c r="C127" t="s">
-        <v>512</v>
+        <v>407</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="E127" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F127" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="94.5">
-      <c r="A128" t="s">
-        <v>547</v>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="115.5">
+      <c r="A128" s="7" t="s">
+        <v>552</v>
       </c>
       <c r="B128" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="D128" t="s">
-        <v>549</v>
-      </c>
-      <c r="E128" t="s">
-        <v>550</v>
-      </c>
-      <c r="F128" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
-        <v>552</v>
+        <v>553</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="115.5">
+      <c r="A129" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="B129" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C129" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D129" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E129" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F129" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
-        <v>556</v>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="101.25">
+      <c r="A130" s="7" t="s">
+        <v>561</v>
       </c>
       <c r="B130" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C130" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D130" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E130" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F130" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="57.75">
+      <c r="A131" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="B131" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C131" t="s">
+        <v>567</v>
+      </c>
+      <c r="D131" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="72.75">
+      <c r="A132" s="7" t="s">
+        <v>569</v>
+      </c>
       <c r="B132" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C132" t="s">
+        <v>570</v>
+      </c>
+      <c r="D132" t="s">
+        <v>571</v>
+      </c>
+      <c r="E132" t="s">
+        <v>572</v>
+      </c>
+      <c r="F132" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="115.5">
+      <c r="A133" s="7" t="s">
+        <v>574</v>
+      </c>
       <c r="B133" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C133" t="s">
+        <v>575</v>
+      </c>
+      <c r="D133" t="s">
+        <v>576</v>
+      </c>
+      <c r="E133" t="s">
+        <v>577</v>
+      </c>
+      <c r="F133" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="87">
+      <c r="A134" s="7" t="s">
+        <v>579</v>
+      </c>
       <c r="B134" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C134" t="s">
+        <v>580</v>
+      </c>
+      <c r="D134" t="s">
+        <v>581</v>
+      </c>
+      <c r="E134" t="s">
+        <v>582</v>
+      </c>
+      <c r="F134" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="43.5">
+      <c r="A135" s="7" t="s">
+        <v>584</v>
+      </c>
       <c r="B135" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C135" t="s">
+        <v>581</v>
+      </c>
+      <c r="D135" t="s">
+        <v>580</v>
+      </c>
+      <c r="E135" t="s">
+        <v>583</v>
+      </c>
+      <c r="F135" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="72.75">
+      <c r="A136" s="7" t="s">
+        <v>585</v>
+      </c>
       <c r="B136" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C136" t="s">
+        <v>582</v>
+      </c>
+      <c r="D136" t="s">
+        <v>583</v>
+      </c>
+      <c r="E136" t="s">
+        <v>581</v>
+      </c>
+      <c r="F136" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="57.75">
+      <c r="A137" s="7" t="s">
+        <v>586</v>
+      </c>
       <c r="B137" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C137" t="s">
+        <v>587</v>
+      </c>
+      <c r="D137" t="s">
+        <v>588</v>
+      </c>
+      <c r="E137" t="s">
+        <v>589</v>
+      </c>
+      <c r="F137" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="43.5">
+      <c r="A138" s="7" t="s">
+        <v>591</v>
+      </c>
       <c r="B138" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C138" t="s">
+        <v>590</v>
+      </c>
+      <c r="D138" t="s">
+        <v>588</v>
+      </c>
+      <c r="E138" t="s">
+        <v>589</v>
+      </c>
+      <c r="F138" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="72.75">
+      <c r="A139" s="7" t="s">
+        <v>592</v>
+      </c>
       <c r="B139" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C139" t="s">
+        <v>589</v>
+      </c>
+      <c r="D139" t="s">
+        <v>588</v>
+      </c>
+      <c r="E139" t="s">
+        <v>587</v>
+      </c>
+      <c r="F139" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="144.75">
+      <c r="A140" s="7" t="s">
+        <v>593</v>
+      </c>
       <c r="B140" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C140" t="s">
+        <v>588</v>
+      </c>
+      <c r="D140" t="s">
+        <v>589</v>
+      </c>
+      <c r="E140" t="s">
+        <v>587</v>
+      </c>
+      <c r="F140" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="43.5">
+      <c r="A141" s="7" t="s">
+        <v>594</v>
+      </c>
       <c r="B141" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C141" t="s">
+        <v>595</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E141" t="s">
+        <v>597</v>
+      </c>
+      <c r="F141" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="87">
+      <c r="A142" s="9" t="s">
+        <v>599</v>
+      </c>
       <c r="B142" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C142" t="s">
+        <v>600</v>
+      </c>
+      <c r="D142" t="s">
+        <v>601</v>
+      </c>
+      <c r="E142" t="s">
+        <v>602</v>
+      </c>
+      <c r="F142" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="130.5">
+      <c r="A143" s="7" t="s">
+        <v>604</v>
+      </c>
       <c r="B143" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>351</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D143" t="s">
+        <v>606</v>
+      </c>
+      <c r="E143" t="s">
+        <v>607</v>
+      </c>
+      <c r="F143" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="87">
+      <c r="A144" s="7" t="s">
+        <v>609</v>
+      </c>
       <c r="B144" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
+        <v>351</v>
+      </c>
+      <c r="C144" t="s">
+        <v>140</v>
+      </c>
+      <c r="D144" t="s">
+        <v>567</v>
+      </c>
+      <c r="E144" t="s">
+        <v>54</v>
+      </c>
+      <c r="F144" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="130.5">
+      <c r="A145" s="7" t="s">
+        <v>611</v>
+      </c>
       <c r="B145" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
+        <v>351</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="144.75">
+      <c r="A146" s="7" t="s">
+        <v>616</v>
+      </c>
       <c r="B146" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
+        <v>351</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="144.75">
+      <c r="A147" s="7" t="s">
+        <v>621</v>
+      </c>
       <c r="B147" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
+        <v>351</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D147" t="s">
+        <v>607</v>
+      </c>
+      <c r="E147" t="s">
+        <v>606</v>
+      </c>
+      <c r="F147" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="115.5">
+      <c r="A148" s="7" t="s">
+        <v>624</v>
+      </c>
       <c r="B148" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
+        <v>351</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D148" t="s">
+        <v>581</v>
+      </c>
+      <c r="E148" t="s">
+        <v>580</v>
+      </c>
+      <c r="F148" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="101.25">
+      <c r="A149" s="7" t="s">
+        <v>627</v>
+      </c>
       <c r="B149" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2">
+        <v>351</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F149" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="174">
+      <c r="A150" s="7" t="s">
+        <v>632</v>
+      </c>
       <c r="B150" t="s">
-        <v>402</v>
+        <v>351</v>
+      </c>
+      <c r="C150" t="s">
+        <v>575</v>
+      </c>
+      <c r="D150" t="s">
+        <v>577</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F150" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="216.75">
+      <c r="A151" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B151" t="s">
+        <v>635</v>
+      </c>
+      <c r="C151" t="s">
+        <v>587</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E151" t="s">
+        <v>588</v>
+      </c>
+      <c r="F151" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="159">
+      <c r="A152" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B152" t="s">
+        <v>635</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="D152" t="s">
+        <v>587</v>
+      </c>
+      <c r="E152" t="s">
+        <v>588</v>
+      </c>
+      <c r="F152" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="130.5">
+      <c r="A153" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B153" t="s">
+        <v>635</v>
+      </c>
+      <c r="C153" t="s">
+        <v>577</v>
+      </c>
+      <c r="D153" t="s">
+        <v>575</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F153" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="87">
+      <c r="A154" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B154" t="s">
+        <v>635</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D154" t="s">
+        <v>631</v>
+      </c>
+      <c r="E154" t="s">
+        <v>568</v>
+      </c>
+      <c r="F154" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="101.25">
+      <c r="A155" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B155" t="s">
+        <v>635</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E155" t="s">
+        <v>581</v>
+      </c>
+      <c r="F155" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="159">
+      <c r="A156" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B156" t="s">
+        <v>635</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D156" t="s">
+        <v>649</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="115.5">
+      <c r="A157" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B157" t="s">
+        <v>351</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="F157" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="101.25">
+      <c r="A158" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B158" t="s">
+        <v>351</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="87">
+      <c r="A159" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B159" t="s">
+        <v>351</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="101.25">
+      <c r="A160" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B160" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D160" t="s">
+        <v>667</v>
+      </c>
+      <c r="E160" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="72.75">
+      <c r="A161" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="B161" t="s">
+        <v>351</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="159">
+      <c r="A162" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B162" t="s">
+        <v>351</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="260.25">
+      <c r="A163" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B163" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D163" t="s">
+        <v>677</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="245.25">
+      <c r="A164" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B164" t="s">
+        <v>635</v>
+      </c>
+      <c r="C164" t="s">
+        <v>679</v>
+      </c>
+      <c r="D164" t="s">
+        <v>680</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="101.25">
+      <c r="A165" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B165" t="s">
+        <v>351</v>
+      </c>
+      <c r="C165" t="s">
+        <v>683</v>
+      </c>
+      <c r="D165" t="s">
+        <v>684</v>
+      </c>
+      <c r="E165" t="s">
+        <v>685</v>
+      </c>
+      <c r="F165" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="72.75">
+      <c r="A166" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="B166" t="s">
+        <v>635</v>
+      </c>
+      <c r="C166" t="s">
+        <v>685</v>
+      </c>
+      <c r="D166" t="s">
+        <v>684</v>
+      </c>
+      <c r="E166" t="s">
+        <v>688</v>
+      </c>
+      <c r="F166" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="87">
+      <c r="A167" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B167" t="s">
+        <v>635</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -5167,7 +6246,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>561</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -5187,7 +6266,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -5199,26 +6278,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1baceadc-52b7-4eb9-ae4b-48120d124b41">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a39bc46d-450a-42c9-8e39-0ad7987a615e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010032969AD210EA8440BC4A77668D8345E1" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b061d477421d5a000a1dde4964d9d323">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1baceadc-52b7-4eb9-ae4b-48120d124b41" xmlns:ns3="a39bc46d-450a-42c9-8e39-0ad7987a615e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b47d805cb41f65ff9d8345fef2d1d06" ns2:_="" ns3:_="">
     <xsd:import namespace="1baceadc-52b7-4eb9-ae4b-48120d124b41"/>
@@ -5413,8 +6472,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1baceadc-52b7-4eb9-ae4b-48120d124b41">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a39bc46d-450a-42c9-8e39-0ad7987a615e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58FD4CFD-402F-4D8B-B949-C8864D1A007C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{958527CB-801F-4DCA-B9E0-BBC4E4AF4E89}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5422,7 +6501,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{958527CB-801F-4DCA-B9E0-BBC4E4AF4E89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58FD4CFD-402F-4D8B-B949-C8864D1A007C}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
